--- a/Document/vendor_DataIntegrasi.xlsx
+++ b/Document/vendor_DataIntegrasi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Katalon Studio\Bio-Farma\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257C6CD3-3055-4D4D-B16E-EB5DA74578B3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB02A193-74FD-488B-B320-934F5E64B915}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{2113EB9C-9E5C-425A-8F8E-2D6EA85A2A44}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{2113EB9C-9E5C-425A-8F8E-2D6EA85A2A44}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendor" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
   <si>
     <t>No</t>
   </si>
@@ -482,12 +482,6 @@
     <t>PT Industri Nuklir Indonesia (Persero)</t>
   </si>
   <si>
-    <t>Kode/123</t>
-  </si>
-  <si>
-    <t>Kode/124</t>
-  </si>
-  <si>
     <t>XL Axiata</t>
   </si>
   <si>
@@ -524,12 +518,6 @@
     <t>rizal@telkom.co.id</t>
   </si>
   <si>
-    <t>VN2396</t>
-  </si>
-  <si>
-    <t>VN0973</t>
-  </si>
-  <si>
     <t>Rijal</t>
   </si>
   <si>
@@ -542,12 +530,6 @@
     <t>Lead Software Quality Assurance</t>
   </si>
   <si>
-    <t>VA902</t>
-  </si>
-  <si>
-    <t>VA124</t>
-  </si>
-  <si>
     <t>Santi</t>
   </si>
   <si>
@@ -584,22 +566,10 @@
     <t>Jl. Setia Budi Selatan No.1, RT.5/RW.5, Kuningan, Karet, Kecamatan Setiabudi, Kota Jakarta Selatan, Daerah Khusus Ibukota Jakarta 12920</t>
   </si>
   <si>
-    <t>BA123</t>
-  </si>
-  <si>
-    <t>BA987</t>
-  </si>
-  <si>
-    <t>12 Januari 2020</t>
-  </si>
-  <si>
-    <t>12 Oktober 2019</t>
-  </si>
-  <si>
-    <t>12 Januari 2025</t>
-  </si>
-  <si>
-    <t>12 Oktober 2024</t>
+    <t>AutomatedTest/001</t>
+  </si>
+  <si>
+    <t>AutomatedTest/002</t>
   </si>
 </sst>
 </file>
@@ -1060,11 +1030,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54679391-4A5E-4325-A86F-68E17734DB3B}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,10 +1116,10 @@
         <v>48</v>
       </c>
       <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
         <v>82</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -1164,28 +1134,28 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" t="s">
         <v>87</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="N2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>120</v>
+      <c r="O2" s="6">
+        <v>43842</v>
+      </c>
+      <c r="P2" s="6">
+        <v>45669</v>
       </c>
       <c r="Q2" t="s">
         <v>41</v>
@@ -1199,10 +1169,10 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
         <v>83</v>
-      </c>
-      <c r="D3" t="s">
-        <v>85</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1217,28 +1187,28 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" t="s">
         <v>86</v>
       </c>
-      <c r="J3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" t="s">
-        <v>88</v>
-      </c>
       <c r="L3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="P3" t="s">
-        <v>121</v>
+      <c r="O3" s="6">
+        <v>43477</v>
+      </c>
+      <c r="P3" s="6">
+        <v>45700</v>
       </c>
       <c r="Q3" t="s">
         <v>41</v>
@@ -1277,7 +1247,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" t="s">
-        <v>100</v>
-      </c>
       <c r="E2" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F2" s="12">
         <v>628112484636</v>
@@ -1334,16 +1304,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" t="s">
-        <v>101</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F3" s="4">
         <v>6281283190040</v>
@@ -1363,7 +1333,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,16 +1370,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F2" s="12">
         <v>628112637536</v>
@@ -1420,16 +1390,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="F3" s="4">
         <v>6281243720040</v>
@@ -1448,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8206C36-FFDB-4A5E-BC7B-343059D88AB5}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,16 +1456,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>105</v>
+      </c>
+      <c r="D2" s="8">
+        <v>123456789</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -1503,16 +1476,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>104</v>
+      </c>
+      <c r="D3" s="8">
+        <v>987654321</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
